--- a/Documentos/Metas_Br_Commerce.xlsx
+++ b/Documentos/Metas_Br_Commerce.xlsx
@@ -707,8 +707,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Documentos/Metas_Br_Commerce.xlsx
+++ b/Documentos/Metas_Br_Commerce.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="88">
   <si>
     <t>Funcionalidade</t>
   </si>
@@ -260,13 +260,31 @@
   </si>
   <si>
     <t>Trigger direto no banco</t>
+  </si>
+  <si>
+    <t>Colaboradores</t>
+  </si>
+  <si>
+    <t>Dias Trabalhados</t>
+  </si>
+  <si>
+    <t>Horas Por Dia</t>
+  </si>
+  <si>
+    <t>Total Pra finalizar</t>
+  </si>
+  <si>
+    <t>Semanas</t>
+  </si>
+  <si>
+    <t>Dias</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -323,8 +341,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -373,6 +398,36 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -387,7 +442,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -400,6 +455,13 @@
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="10" fontId="6" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -708,7 +770,7 @@
   <dimension ref="A1:H82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -736,7 +798,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -748,6 +810,17 @@
       </c>
       <c r="D2" t="s">
         <v>78</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="3">
+        <f>SUM(B1:B79)</f>
+        <v>2111</v>
+      </c>
+      <c r="G2" s="4">
+        <f>SUM(C1:C79)</f>
+        <v>1444</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -761,7 +834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -770,6 +843,14 @@
       </c>
       <c r="C4">
         <v>0</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="7"/>
+      <c r="G4" s="10">
+        <f>(G2/F2)*100%</f>
+        <v>0.6840360018948366</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -783,7 +864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>34</v>
       </c>
@@ -792,6 +873,16 @@
       </c>
       <c r="C6">
         <v>8</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="F6" s="9">
+        <f>(G2*20)/60</f>
+        <v>481.33333333333331</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -805,7 +896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -818,8 +909,14 @@
       <c r="D8" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E8" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="F8" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -828,6 +925,12 @@
       </c>
       <c r="C9">
         <v>40</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="F9" s="13">
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -840,16 +943,11 @@
       <c r="C10">
         <v>20</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F10" s="3">
-        <f>SUM(B2:B80)</f>
-        <v>2111</v>
-      </c>
-      <c r="G10" s="4">
-        <f>SUM(C2:C80)</f>
-        <v>1444</v>
+      <c r="E10" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="F10" s="14">
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -874,15 +972,17 @@
         <v>13</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F12" s="7"/>
-      <c r="G12" s="10">
-        <f>(G10/F10)*100%</f>
-        <v>0.6840360018948366</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+      <c r="F12" s="15">
+        <f>(F6/(F8*F9*F10))</f>
+        <v>34.38095238095238</v>
+      </c>
+      <c r="G12" s="15" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -892,6 +992,14 @@
       <c r="C13">
         <v>13</v>
       </c>
+      <c r="E13" s="6"/>
+      <c r="F13" s="16">
+        <f>(F12*F9)</f>
+        <v>240.66666666666666</v>
+      </c>
+      <c r="G13" s="16" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="14" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
@@ -903,16 +1011,9 @@
       <c r="C14">
         <v>8</v>
       </c>
-      <c r="E14" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="F14" s="9">
-        <f>(G10*20)/60</f>
-        <v>481.33333333333331</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>76</v>
-      </c>
+      <c r="E14" s="6"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="18"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">

--- a/Documentos/Metas_Br_Commerce.xlsx
+++ b/Documentos/Metas_Br_Commerce.xlsx
@@ -769,8 +769,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
